--- a/Datos/BRECHAS_ING/Brechas_Ingresos_Region_3.xlsx
+++ b/Datos/BRECHAS_ING/Brechas_Ingresos_Region_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\sfarias\Documents\Curso Python\.vscode\dashboard-indicadores\Datos\BRECHAS_ING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701DA254-C992-4B1D-84D0-C6A31A04086E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FB8683-99AE-4D24-8342-C090817A7F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,10 +85,10 @@
     <t>Region de Atacama</t>
   </si>
   <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Hombre</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD22"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>1038928.3125</v>
@@ -542,7 +542,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>751168.125</v>
@@ -571,7 +571,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>936444.6875</v>
@@ -600,7 +600,7 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>685468.875</v>
@@ -629,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>819261.875</v>
@@ -658,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>562080.875</v>
@@ -687,7 +687,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8">
         <v>932879.875</v>
@@ -716,7 +716,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9">
         <v>650952.8125</v>
@@ -745,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10">
         <v>1179433.125</v>
@@ -774,7 +774,7 @@
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>750741.0625</v>
@@ -803,7 +803,7 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12">
         <v>972371.625</v>
@@ -832,7 +832,7 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13">
         <v>701306.875</v>
@@ -861,7 +861,7 @@
         <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14">
         <v>589604.125</v>
@@ -890,7 +890,7 @@
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15">
         <v>539727.3125</v>
@@ -919,7 +919,7 @@
         <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16">
         <v>796514.25</v>
@@ -948,7 +948,7 @@
         <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17">
         <v>560904.0625</v>
@@ -977,7 +977,7 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18">
         <v>979338.625</v>
@@ -1006,7 +1006,7 @@
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H19">
         <v>667128.5625</v>
@@ -1026,7 +1026,7 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20">
         <v>1003789</v>
@@ -1046,7 +1046,7 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H21">
         <v>719934.5</v>
@@ -1066,7 +1066,7 @@
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22">
         <v>864177.4375</v>
@@ -1086,7 +1086,7 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23">
         <v>740526.3125</v>
